--- a/part1 - 副本.xlsx
+++ b/part1 - 副本.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="93">
   <si>
     <t>搜索检索词</t>
   </si>
@@ -119,191 +119,214 @@
     <t>在在在在造句</t>
   </si>
   <si>
+    <t>植物传播种子的方法</t>
+  </si>
+  <si>
+    <t>强军战歌</t>
+  </si>
+  <si>
+    <t>植物妈妈有办法仿写</t>
+  </si>
+  <si>
+    <t>详细的近义词</t>
+  </si>
+  <si>
+    <t>向日葵传播种子的方法</t>
+  </si>
+  <si>
+    <t>植物传播种子的方法有哪些</t>
+  </si>
+  <si>
+    <t>赠刘景文翻译</t>
+  </si>
+  <si>
+    <t>在…在…在…在…造句</t>
+  </si>
+  <si>
+    <t>学生会申请书</t>
+  </si>
+  <si>
+    <t>自我评价</t>
+  </si>
+  <si>
+    <t>夜书所见的诗意</t>
+  </si>
+  <si>
+    <t>脑筋急转弯大全及答案</t>
+  </si>
+  <si>
+    <t>女生网名简单干净</t>
+  </si>
+  <si>
+    <t>所见古诗的意思</t>
+  </si>
+  <si>
+    <t>英文名字女</t>
+  </si>
+  <si>
+    <t>三字经全文朗读</t>
+  </si>
+  <si>
+    <t>自我介绍英文</t>
+  </si>
+  <si>
+    <t>照例的近义词</t>
+  </si>
+  <si>
+    <t>检讨书怎么写</t>
+  </si>
+  <si>
+    <t>不染歌词</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>面试自我介绍</t>
+  </si>
+  <si>
+    <t>盗将行</t>
+  </si>
+  <si>
+    <t>在在在造句二年级大全</t>
+  </si>
+  <si>
+    <t>1099美元</t>
+  </si>
+  <si>
+    <t>五险一金指什么</t>
+  </si>
+  <si>
+    <t>律师在线</t>
+  </si>
+  <si>
+    <t>在在在造句二年级</t>
+  </si>
+  <si>
+    <t>拟人句大全</t>
+  </si>
+  <si>
+    <t>少数民族有哪些</t>
+  </si>
+  <si>
+    <t>天奇生活</t>
+  </si>
+  <si>
+    <t>脑筋急转弯</t>
+  </si>
+  <si>
+    <t>植物妈妈有办法</t>
+  </si>
+  <si>
+    <t>视频卡</t>
+  </si>
+  <si>
+    <t>视频</t>
+  </si>
+  <si>
+    <t>超碰</t>
+  </si>
+  <si>
+    <t>中华网</t>
+  </si>
+  <si>
+    <t>文字卡</t>
+  </si>
+  <si>
+    <t>跨行转账多久到账</t>
+  </si>
+  <si>
+    <t>希财网</t>
+  </si>
+  <si>
+    <t>贫困生申请书</t>
+  </si>
+  <si>
+    <t>懂得网</t>
+  </si>
+  <si>
+    <t>顺嫔</t>
+  </si>
+  <si>
+    <t>[2</t>
+  </si>
+  <si>
     <t>有时候有时候造句</t>
-  </si>
-  <si>
-    <t>植物传播种子的方法</t>
-  </si>
-  <si>
-    <t>强军战歌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>她组词</t>
-  </si>
-  <si>
-    <t>植物妈妈有办法仿写</t>
-  </si>
-  <si>
-    <t>详细的近义词</t>
-  </si>
-  <si>
-    <t>向日葵传播种子的方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚刚什么地方地震了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军训心得体会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>次北固山下翻译</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔智齿后悔死了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我介绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skr什么意思</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq邮箱格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微笑狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪里地震了今天刚刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有趣的动物二年级写话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我介绍面试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>助学金申请书</t>
-  </si>
-  <si>
-    <t>植物传播种子的方法有哪些</t>
-  </si>
-  <si>
-    <t>赠刘景文翻译</t>
-  </si>
-  <si>
-    <t>刚刚什么地方地震了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1]</t>
   </si>
   <si>
     <t>邮箱格式</t>
-  </si>
-  <si>
-    <t>在…在…在…在…造句</t>
-  </si>
-  <si>
-    <t>学生会申请书</t>
-  </si>
-  <si>
-    <t>自我评价</t>
-  </si>
-  <si>
-    <t>夜书所见的诗意</t>
-  </si>
-  <si>
-    <t>军训心得体会</t>
-  </si>
-  <si>
-    <t>脑筋急转弯大全及答案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>睡不着的时候会不会有人陪着我</t>
-  </si>
-  <si>
-    <t>女生网名简单干净</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>192.168.0.1</t>
-  </si>
-  <si>
-    <t>所见古诗的意思</t>
-  </si>
-  <si>
-    <t>次北固山下翻译</t>
-  </si>
-  <si>
-    <t>英文名字女</t>
-  </si>
-  <si>
-    <t>拔智齿后悔死了</t>
-  </si>
-  <si>
-    <t>三字经全文朗读</t>
-  </si>
-  <si>
-    <t>自我介绍</t>
-  </si>
-  <si>
-    <t>自我介绍英文</t>
-  </si>
-  <si>
-    <t>skr什么意思</t>
-  </si>
-  <si>
-    <t>照例的近义词</t>
-  </si>
-  <si>
-    <t>qq邮箱格式</t>
-  </si>
-  <si>
-    <t>检讨书怎么写</t>
-  </si>
-  <si>
-    <t>不染歌词</t>
-  </si>
-  <si>
-    <t>192.168.1.1</t>
-  </si>
-  <si>
-    <t>面试自我介绍</t>
-  </si>
-  <si>
-    <t>微笑狗</t>
-  </si>
-  <si>
-    <t>盗将行</t>
-  </si>
-  <si>
-    <t>在在在造句二年级大全</t>
-  </si>
-  <si>
-    <t>1099美元</t>
-  </si>
-  <si>
-    <t>五险一金指什么</t>
-  </si>
-  <si>
-    <t>律师在线</t>
-  </si>
-  <si>
-    <t>哪里地震了今天刚刚</t>
-  </si>
-  <si>
-    <t>在在在造句二年级</t>
-  </si>
-  <si>
-    <t>拟人句大全</t>
-  </si>
-  <si>
-    <t>少数民族有哪些</t>
-  </si>
-  <si>
-    <t>天奇生活</t>
-  </si>
-  <si>
-    <t>脑筋急转弯</t>
-  </si>
-  <si>
-    <t>植物妈妈有办法</t>
-  </si>
-  <si>
-    <t>视频卡</t>
-  </si>
-  <si>
-    <t>视频</t>
-  </si>
-  <si>
-    <t>超碰</t>
-  </si>
-  <si>
-    <t>中华网</t>
-  </si>
-  <si>
-    <t>有趣的动物二年级写话</t>
-  </si>
-  <si>
-    <t>文字卡</t>
-  </si>
-  <si>
-    <t>跨行转账多久到账</t>
-  </si>
-  <si>
-    <t>希财网</t>
-  </si>
-  <si>
-    <t>自我介绍面试</t>
-  </si>
-  <si>
-    <t>贫困生申请书</t>
-  </si>
-  <si>
-    <t>懂得网</t>
-  </si>
-  <si>
-    <t>顺嫔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,8 +357,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +376,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFE2C23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -357,12 +393,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -372,9 +411,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,15 +695,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:BE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="31.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -693,10 +739,13 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -710,10 +759,13 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -727,10 +779,13 @@
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -744,13 +799,16 @@
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -761,10 +819,13 @@
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -778,10 +839,13 @@
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -795,10 +859,13 @@
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -812,10 +879,13 @@
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -827,10 +897,13 @@
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -844,10 +917,13 @@
       <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -861,10 +937,13 @@
       <c r="E12" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -878,13 +957,16 @@
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>19</v>
@@ -895,10 +977,13 @@
       <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -912,10 +997,13 @@
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -929,10 +1017,13 @@
       <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -946,10 +1037,13 @@
       <c r="E17" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -963,10 +1057,13 @@
       <c r="E18" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -980,10 +1077,13 @@
       <c r="E19" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -997,12 +1097,15 @@
       <c r="E20" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1014,10 +1117,13 @@
       <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
@@ -1031,10 +1137,13 @@
       <c r="E22" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
@@ -1048,10 +1157,13 @@
       <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
@@ -1065,10 +1177,13 @@
       <c r="E24" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
@@ -1082,10 +1197,13 @@
       <c r="E25" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
@@ -1099,10 +1217,13 @@
       <c r="E26" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
@@ -1116,10 +1237,13 @@
       <c r="E27" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
@@ -1133,10 +1257,13 @@
       <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
@@ -1150,10 +1277,13 @@
       <c r="E29" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
@@ -1167,12 +1297,15 @@
       <c r="E30" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1184,10 +1317,13 @@
       <c r="E31" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
@@ -1201,10 +1337,13 @@
       <c r="E32" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
@@ -1218,10 +1357,13 @@
       <c r="E33" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
@@ -1235,10 +1377,13 @@
       <c r="E34" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>9</v>
@@ -1252,10 +1397,13 @@
       <c r="E35" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>9</v>
@@ -1269,10 +1417,13 @@
       <c r="E36" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>9</v>
@@ -1286,10 +1437,13 @@
       <c r="E37" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
@@ -1303,10 +1457,13 @@
       <c r="E38" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>9</v>
@@ -1320,10 +1477,13 @@
       <c r="E39" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
@@ -1337,10 +1497,13 @@
       <c r="E40" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
@@ -1352,16 +1515,19 @@
       <c r="E41" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>12</v>
@@ -1369,10 +1535,13 @@
       <c r="E42" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>9</v>
@@ -1386,10 +1555,13 @@
       <c r="E43" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>9</v>
@@ -1403,10 +1575,13 @@
       <c r="E44" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>9</v>
@@ -1420,16 +1595,19 @@
       <c r="E45" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>12</v>
@@ -1437,10 +1615,13 @@
       <c r="E46" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>9</v>
@@ -1454,33 +1635,39 @@
       <c r="E47" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>7</v>
@@ -1488,16 +1675,19 @@
       <c r="E49" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>7</v>
@@ -1505,16 +1695,19 @@
       <c r="E50" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>17</v>
@@ -1522,8 +1715,11 @@
       <c r="E51" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57">
       <c r="A52" s="2" t="s">
         <v>87</v>
       </c>
@@ -1534,21 +1730,24 @@
         <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>17</v>
@@ -1556,10 +1755,13 @@
       <c r="E53" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>9</v>
@@ -1572,10 +1774,175 @@
       </c>
       <c r="E54" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57">
+      <c r="E61" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <v>2</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>2</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>2</v>
+      </c>
+      <c r="AB61">
+        <v>1</v>
+      </c>
+      <c r="AC61">
+        <v>2</v>
+      </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
+      <c r="AE61">
+        <v>2</v>
+      </c>
+      <c r="AF61">
+        <v>2</v>
+      </c>
+      <c r="AG61">
+        <v>2</v>
+      </c>
+      <c r="AH61">
+        <v>1</v>
+      </c>
+      <c r="AI61">
+        <v>1</v>
+      </c>
+      <c r="AJ61">
+        <v>1</v>
+      </c>
+      <c r="AK61">
+        <v>2</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="AP61">
+        <v>2</v>
+      </c>
+      <c r="AQ61">
+        <v>2</v>
+      </c>
+      <c r="AR61">
+        <v>2</v>
+      </c>
+      <c r="AS61">
+        <v>2</v>
+      </c>
+      <c r="AT61">
+        <v>2</v>
+      </c>
+      <c r="AU61">
+        <v>2</v>
+      </c>
+      <c r="AV61">
+        <v>1</v>
+      </c>
+      <c r="AW61">
+        <v>2</v>
+      </c>
+      <c r="AX61">
+        <v>2</v>
+      </c>
+      <c r="AY61">
+        <v>2</v>
+      </c>
+      <c r="AZ61">
+        <v>1</v>
+      </c>
+      <c r="BA61">
+        <v>2</v>
+      </c>
+      <c r="BB61">
+        <v>2</v>
+      </c>
+      <c r="BC61">
+        <v>2</v>
+      </c>
+      <c r="BD61">
+        <v>1</v>
+      </c>
+      <c r="BE61" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>